--- a/python_source/hr_ptcc_project/static/employee_profile/files/leave_registry_template_v1.xlsx
+++ b/python_source/hr_ptcc_project/static/employee_profile/files/leave_registry_template_v1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">Professor Torsten Calvi Corporation</t>
   </si>
@@ -98,78 +98,27 @@
   </si>
   <si>
     <t xml:space="preserve">Total (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absences Cut-Off:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category/ Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undertime (mins)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared by:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verified by:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received by:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letecia Bodiongan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susan Benjamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accounting Supervisor - B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance and Admin Director</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract Evaluation Date:   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMEKEEPING OFFENSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL (Offenses)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00&quot; days&quot;"/>
-    <numFmt numFmtId="166" formatCode="\ * #,##0.00\ ;\ * \(#,##0.00\);\ * \-#\ ;\ @\ "/>
+    <numFmt numFmtId="166" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;@\ "/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="169" formatCode="0.00&quot; day&quot;"/>
     <numFmt numFmtId="170" formatCode="mmm/dd"/>
-    <numFmt numFmtId="171" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="172" formatCode="0.00"/>
-    <numFmt numFmtId="173" formatCode="0.00&quot; minutes&quot;"/>
-    <numFmt numFmtId="174" formatCode="mmm\ d&quot;, &quot;yy"/>
-    <numFmt numFmtId="175" formatCode="d/mmm/yy;@"/>
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="177" formatCode="0\ ;\(0\)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -191,11 +140,13 @@
       <sz val="20"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -203,17 +154,20 @@
       <sz val="12"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -221,17 +175,20 @@
       <color rgb="FFFFFFFF"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -239,12 +196,14 @@
       <sz val="11"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -252,33 +211,24 @@
       <color rgb="FF800000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,7 +244,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -309,14 +259,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="35">
+  <borders count="25">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -490,94 +434,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF333333"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FF333333"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF333333"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF333333"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF333333"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -600,13 +456,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -801,134 +659,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="19" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="20" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -956,7 +686,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1008,18 +738,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.01"/>
   </cols>
@@ -1490,313 +1220,7 @@
       <c r="H40" s="47"/>
       <c r="I40" s="48"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F43" s="49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="53"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="57"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="53"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="57"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="53"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="57"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="53"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="57"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="53"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="57"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="53"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="57"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="53"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="57"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="53"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="53"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="57"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="53"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="57"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F56" s="53"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="57"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F57" s="53"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F58" s="53"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="57"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="53"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
-    </row>
-    <row r="60" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="53"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="57"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="53"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="53"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="57"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="53"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="57"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="53"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="57"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="53"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="53"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="57"/>
-    </row>
-    <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="53"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="57"/>
-    </row>
-    <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="53"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="57"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="53"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="57"/>
-    </row>
-    <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F70" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="61"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F72" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="63"/>
-      <c r="H72" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F75" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" s="63"/>
-      <c r="H75" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="I75" s="62"/>
-      <c r="J75" s="49"/>
-    </row>
-    <row r="76" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F76" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="G76" s="63"/>
-      <c r="H76" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="I76" s="62"/>
-      <c r="J76" s="64" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="2"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F78" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F79" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="G79" s="69"/>
-      <c r="H79" s="69"/>
-      <c r="I79" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="J79" s="71"/>
-    </row>
-    <row r="80" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="74"/>
-    </row>
-    <row r="81" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F81" s="75"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
-    </row>
-    <row r="82" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F82" s="77"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="79"/>
-      <c r="J82" s="80"/>
-    </row>
-    <row r="83" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F83" s="77"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="79"/>
-      <c r="I83" s="79"/>
-      <c r="J83" s="80"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G45:H45"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
